--- a/Import Data/65x60.xlsx
+++ b/Import Data/65x60.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57244FA9-76ED-4C4F-9FF1-A1CF57768CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="84" windowWidth="10500" windowHeight="5856"/>
+    <workbookView xWindow="21105" yWindow="4395" windowWidth="14130" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="46">
   <si>
     <t>6.5x6.0</t>
   </si>
@@ -155,21 +174,12 @@
   <si>
     <t>(Lbf)</t>
   </si>
-  <si>
-    <t>0.65-NaN</t>
-  </si>
-  <si>
-    <t>1.02-NaN</t>
-  </si>
-  <si>
-    <t>1.14-NaN</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +217,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -253,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,14 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="K987" sqref="K987"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +568,7 @@
         <v>41996</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -541,12 +597,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -557,7 +613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -580,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -603,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -611,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -628,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -642,7 +698,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -668,7 +724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -688,7 +744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -714,7 +770,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.3</v>
       </c>
@@ -740,7 +796,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.5</v>
       </c>
@@ -766,7 +822,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.8</v>
       </c>
@@ -792,7 +848,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -818,7 +874,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.3</v>
       </c>
@@ -844,7 +900,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.5</v>
       </c>
@@ -870,7 +926,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.8</v>
       </c>
@@ -896,7 +952,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -922,7 +978,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.2999999999999998</v>
       </c>
@@ -948,7 +1004,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.5</v>
       </c>
@@ -974,7 +1030,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.8</v>
       </c>
@@ -1000,7 +1056,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1026,7 +1082,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.3</v>
       </c>
@@ -1052,7 +1108,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.5</v>
       </c>
@@ -1078,7 +1134,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.8</v>
       </c>
@@ -1104,7 +1160,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4.0999999999999996</v>
       </c>
@@ -1130,7 +1186,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.3</v>
       </c>
@@ -1156,7 +1212,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4.5999999999999996</v>
       </c>
@@ -1182,7 +1238,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4.8</v>
       </c>
@@ -1208,7 +1264,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.0999999999999996</v>
       </c>
@@ -1234,7 +1290,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5.3</v>
       </c>
@@ -1260,7 +1316,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5.6</v>
       </c>
@@ -1286,7 +1342,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5.8</v>
       </c>
@@ -1312,7 +1368,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6.1</v>
       </c>
@@ -1338,7 +1394,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6.3</v>
       </c>
@@ -1364,7 +1420,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6.6</v>
       </c>
@@ -1390,7 +1446,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6.8</v>
       </c>
@@ -1416,7 +1472,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7.1</v>
       </c>
@@ -1442,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7.3</v>
       </c>
@@ -1468,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1482,7 +1538,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1528,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1554,7 +1610,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.5</v>
       </c>
@@ -1580,7 +1636,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1606,7 +1662,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.5</v>
       </c>
@@ -1632,7 +1688,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1658,7 +1714,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.5</v>
       </c>
@@ -1684,7 +1740,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1710,7 +1766,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3.5</v>
       </c>
@@ -1736,7 +1792,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
@@ -1762,7 +1818,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4.5999999999999996</v>
       </c>
@@ -1788,7 +1844,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5.0999999999999996</v>
       </c>
@@ -1814,7 +1870,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5.6</v>
       </c>
@@ -1840,7 +1896,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6.1</v>
       </c>
@@ -1866,7 +1922,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6.6</v>
       </c>
@@ -1892,7 +1948,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>7.1</v>
       </c>
@@ -1918,7 +1974,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7.6</v>
       </c>
@@ -1944,7 +2000,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8.1</v>
       </c>
@@ -1970,7 +2026,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8.6</v>
       </c>
@@ -1996,7 +2052,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9.1</v>
       </c>
@@ -2022,7 +2078,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9.6</v>
       </c>
@@ -2048,7 +2104,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10.1</v>
       </c>
@@ -2074,7 +2130,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10.6</v>
       </c>
@@ -2100,7 +2156,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11.1</v>
       </c>
@@ -2126,7 +2182,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11.6</v>
       </c>
@@ -2152,7 +2208,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12.1</v>
       </c>
@@ -2178,7 +2234,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>12.6</v>
       </c>
@@ -2204,7 +2260,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>13.1</v>
       </c>
@@ -2230,7 +2286,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>13.7</v>
       </c>
@@ -2256,7 +2312,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>14.2</v>
       </c>
@@ -2282,7 +2338,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>14.7</v>
       </c>
@@ -2308,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2322,7 +2378,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2348,7 +2404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2368,7 +2424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2394,7 +2450,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.8</v>
       </c>
@@ -2420,7 +2476,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1.5</v>
       </c>
@@ -2446,7 +2502,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2.2999999999999998</v>
       </c>
@@ -2472,7 +2528,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -2498,7 +2554,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3.8</v>
       </c>
@@ -2524,7 +2580,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4.5</v>
       </c>
@@ -2550,7 +2606,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5.3</v>
       </c>
@@ -2576,7 +2632,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6.1</v>
       </c>
@@ -2602,7 +2658,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6.8</v>
       </c>
@@ -2628,7 +2684,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>7.6</v>
       </c>
@@ -2654,7 +2710,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>8.3000000000000007</v>
       </c>
@@ -2680,7 +2736,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>9.1</v>
       </c>
@@ -2706,7 +2762,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9.8000000000000007</v>
       </c>
@@ -2732,7 +2788,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10.6</v>
       </c>
@@ -2758,7 +2814,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>11.4</v>
       </c>
@@ -2784,7 +2840,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>12.1</v>
       </c>
@@ -2810,7 +2866,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>12.9</v>
       </c>
@@ -2836,7 +2892,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>13.6</v>
       </c>
@@ -2862,7 +2918,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>14.4</v>
       </c>
@@ -2888,7 +2944,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>15.2</v>
       </c>
@@ -2914,7 +2970,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>15.9</v>
       </c>
@@ -2940,7 +2996,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>16.7</v>
       </c>
@@ -2966,7 +3022,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>17.399999999999999</v>
       </c>
@@ -2992,7 +3048,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>18.2</v>
       </c>
@@ -3018,7 +3074,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>18.899999999999999</v>
       </c>
@@ -3044,7 +3100,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>19.7</v>
       </c>
@@ -3070,7 +3126,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>20.5</v>
       </c>
@@ -3096,7 +3152,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>21.2</v>
       </c>
@@ -3122,7 +3178,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>22</v>
       </c>
@@ -3148,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3162,7 +3218,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3188,7 +3244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3208,7 +3264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3234,7 +3290,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3260,7 +3316,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2</v>
       </c>
@@ -3286,7 +3342,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -3312,7 +3368,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -3338,7 +3394,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5.0999999999999996</v>
       </c>
@@ -3364,7 +3420,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6.1</v>
       </c>
@@ -3390,7 +3446,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7.1</v>
       </c>
@@ -3416,7 +3472,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>8.1</v>
       </c>
@@ -3442,7 +3498,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>9.1</v>
       </c>
@@ -3468,7 +3524,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>10.1</v>
       </c>
@@ -3494,7 +3550,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>11.1</v>
       </c>
@@ -3520,7 +3576,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>12.1</v>
       </c>
@@ -3546,7 +3602,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>13.1</v>
       </c>
@@ -3572,7 +3628,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>14.1</v>
       </c>
@@ -3598,7 +3654,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>15.2</v>
       </c>
@@ -3624,7 +3680,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>16.2</v>
       </c>
@@ -3650,7 +3706,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>17.2</v>
       </c>
@@ -3676,7 +3732,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>18.2</v>
       </c>
@@ -3702,7 +3758,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>19.2</v>
       </c>
@@ -3728,7 +3784,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>20.2</v>
       </c>
@@ -3754,7 +3810,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>21.2</v>
       </c>
@@ -3780,7 +3836,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>22.2</v>
       </c>
@@ -3806,7 +3862,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>23.2</v>
       </c>
@@ -3832,7 +3888,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24.2</v>
       </c>
@@ -3858,7 +3914,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>25.3</v>
       </c>
@@ -3884,7 +3940,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>26.3</v>
       </c>
@@ -3910,7 +3966,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>27.3</v>
       </c>
@@ -3936,7 +3992,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>28.3</v>
       </c>
@@ -3962,7 +4018,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>29.3</v>
       </c>
@@ -3988,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4002,7 +4058,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4028,7 +4084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4048,7 +4104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4074,7 +4130,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1.3</v>
       </c>
@@ -4100,7 +4156,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2.5</v>
       </c>
@@ -4126,7 +4182,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3.8</v>
       </c>
@@ -4152,7 +4208,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>5</v>
       </c>
@@ -4178,7 +4234,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6.3</v>
       </c>
@@ -4204,7 +4260,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7.6</v>
       </c>
@@ -4230,7 +4286,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8.8000000000000007</v>
       </c>
@@ -4256,7 +4312,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>10.1</v>
       </c>
@@ -4282,7 +4338,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>11.4</v>
       </c>
@@ -4308,7 +4364,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>12.6</v>
       </c>
@@ -4334,7 +4390,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>13.9</v>
       </c>
@@ -4360,7 +4416,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>15.1</v>
       </c>
@@ -4386,7 +4442,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>16.399999999999999</v>
       </c>
@@ -4412,7 +4468,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>17.7</v>
       </c>
@@ -4438,7 +4494,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>18.899999999999999</v>
       </c>
@@ -4464,7 +4520,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20.2</v>
       </c>
@@ -4490,7 +4546,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>21.5</v>
       </c>
@@ -4516,7 +4572,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>22.7</v>
       </c>
@@ -4542,7 +4598,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>24</v>
       </c>
@@ -4568,7 +4624,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>25.2</v>
       </c>
@@ -4594,7 +4650,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>26.5</v>
       </c>
@@ -4620,7 +4676,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>27.8</v>
       </c>
@@ -4646,7 +4702,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>29</v>
       </c>
@@ -4672,7 +4728,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>30.3</v>
       </c>
@@ -4698,7 +4754,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>31.6</v>
       </c>
@@ -4724,7 +4780,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>32.799999999999997</v>
       </c>
@@ -4750,7 +4806,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>34.1</v>
       </c>
@@ -4776,7 +4832,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>35.299999999999997</v>
       </c>
@@ -4802,7 +4858,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>36.6</v>
       </c>
@@ -4828,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4842,7 +4898,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4868,7 +4924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4888,7 +4944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4914,7 +4970,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1.5</v>
       </c>
@@ -4940,7 +4996,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3</v>
       </c>
@@ -4966,7 +5022,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4.5</v>
       </c>
@@ -4992,7 +5048,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>6.1</v>
       </c>
@@ -5018,7 +5074,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>7.6</v>
       </c>
@@ -5044,7 +5100,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>9.1</v>
       </c>
@@ -5070,7 +5126,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>10.6</v>
       </c>
@@ -5096,7 +5152,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>12.1</v>
       </c>
@@ -5122,7 +5178,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>13.6</v>
       </c>
@@ -5148,7 +5204,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>15.1</v>
       </c>
@@ -5174,7 +5230,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>16.7</v>
       </c>
@@ -5200,7 +5256,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>18.2</v>
       </c>
@@ -5226,7 +5282,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>19.7</v>
       </c>
@@ -5252,7 +5308,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>21.2</v>
       </c>
@@ -5278,7 +5334,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>22.7</v>
       </c>
@@ -5304,7 +5360,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>24.2</v>
       </c>
@@ -5330,7 +5386,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>25.8</v>
       </c>
@@ -5356,7 +5412,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>27.3</v>
       </c>
@@ -5382,7 +5438,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>28.8</v>
       </c>
@@ -5408,7 +5464,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>30.3</v>
       </c>
@@ -5434,7 +5490,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>31.8</v>
       </c>
@@ -5460,7 +5516,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>33.299999999999997</v>
       </c>
@@ -5486,7 +5542,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>34.799999999999997</v>
       </c>
@@ -5512,7 +5568,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>36.4</v>
       </c>
@@ -5538,7 +5594,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>37.9</v>
       </c>
@@ -5564,7 +5620,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>39.4</v>
       </c>
@@ -5590,7 +5646,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>40.9</v>
       </c>
@@ -5616,7 +5672,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>42.4</v>
       </c>
@@ -5642,7 +5698,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>43.9</v>
       </c>
@@ -5668,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5682,7 +5738,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5708,7 +5764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5728,7 +5784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5754,7 +5810,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1.8</v>
       </c>
@@ -5780,7 +5836,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>3.5</v>
       </c>
@@ -5806,7 +5862,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>5.3</v>
       </c>
@@ -5832,7 +5888,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>7.1</v>
       </c>
@@ -5858,7 +5914,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>8.8000000000000007</v>
       </c>
@@ -5884,7 +5940,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>10.6</v>
       </c>
@@ -5910,7 +5966,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>12.4</v>
       </c>
@@ -5936,7 +5992,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>14.1</v>
       </c>
@@ -5962,7 +6018,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>15.9</v>
       </c>
@@ -5988,7 +6044,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>17.7</v>
       </c>
@@ -6014,7 +6070,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>19.399999999999999</v>
       </c>
@@ -6040,7 +6096,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>21.2</v>
       </c>
@@ -6066,7 +6122,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>23</v>
       </c>
@@ -6092,7 +6148,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>24.7</v>
       </c>
@@ -6118,7 +6174,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26.5</v>
       </c>
@@ -6144,7 +6200,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>28.3</v>
       </c>
@@ -6170,7 +6226,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>30</v>
       </c>
@@ -6196,7 +6252,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>31.8</v>
       </c>
@@ -6222,7 +6278,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>33.6</v>
       </c>
@@ -6248,7 +6304,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>35.299999999999997</v>
       </c>
@@ -6274,7 +6330,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>37.1</v>
       </c>
@@ -6300,7 +6356,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>38.9</v>
       </c>
@@ -6326,7 +6382,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>40.6</v>
       </c>
@@ -6352,7 +6408,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>42.4</v>
       </c>
@@ -6378,7 +6434,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>44.2</v>
       </c>
@@ -6404,7 +6460,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>45.9</v>
       </c>
@@ -6430,7 +6486,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>47.7</v>
       </c>
@@ -6456,7 +6512,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>49.5</v>
       </c>
@@ -6482,7 +6538,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>51.2</v>
       </c>
@@ -6508,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6522,7 +6578,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6548,7 +6604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6568,7 +6624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6594,7 +6650,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2</v>
       </c>
@@ -6620,7 +6676,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>4</v>
       </c>
@@ -6646,7 +6702,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>6.1</v>
       </c>
@@ -6672,7 +6728,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>8.1</v>
       </c>
@@ -6698,7 +6754,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>10.1</v>
       </c>
@@ -6724,7 +6780,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>12.1</v>
       </c>
@@ -6750,7 +6806,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>14.1</v>
       </c>
@@ -6776,7 +6832,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>16.2</v>
       </c>
@@ -6802,7 +6858,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>18.2</v>
       </c>
@@ -6828,7 +6884,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>20.2</v>
       </c>
@@ -6854,7 +6910,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>22.2</v>
       </c>
@@ -6880,7 +6936,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>24.2</v>
       </c>
@@ -6906,7 +6962,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>26.3</v>
       </c>
@@ -6932,7 +6988,7 @@
         <v>0.36899999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>28.3</v>
       </c>
@@ -6958,7 +7014,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>30.3</v>
       </c>
@@ -6984,7 +7040,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>32.299999999999997</v>
       </c>
@@ -7010,7 +7066,7 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>34.4</v>
       </c>
@@ -7036,7 +7092,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>36.4</v>
       </c>
@@ -7062,7 +7118,7 @@
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>38.4</v>
       </c>
@@ -7088,7 +7144,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>40.4</v>
       </c>
@@ -7114,7 +7170,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>42.4</v>
       </c>
@@ -7140,7 +7196,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>44.5</v>
       </c>
@@ -7166,7 +7222,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>46.5</v>
       </c>
@@ -7192,7 +7248,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>48.5</v>
       </c>
@@ -7218,7 +7274,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>50.5</v>
       </c>
@@ -7244,7 +7300,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>52.5</v>
       </c>
@@ -7270,7 +7326,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>54.6</v>
       </c>
@@ -7296,7 +7352,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>56.6</v>
       </c>
@@ -7322,7 +7378,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>58.6</v>
       </c>
@@ -7348,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7362,7 +7418,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7388,7 +7444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7408,7 +7464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7434,7 +7490,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2.2999999999999998</v>
       </c>
@@ -7460,7 +7516,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>4.5</v>
       </c>
@@ -7486,7 +7542,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>6.8</v>
       </c>
@@ -7512,7 +7568,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>9.1</v>
       </c>
@@ -7538,7 +7594,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>11.4</v>
       </c>
@@ -7564,7 +7620,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>13.6</v>
       </c>
@@ -7590,7 +7646,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>15.9</v>
       </c>
@@ -7616,7 +7672,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>18.2</v>
       </c>
@@ -7642,7 +7698,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>20.5</v>
       </c>
@@ -7668,7 +7724,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>22.7</v>
       </c>
@@ -7694,7 +7750,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>25</v>
       </c>
@@ -7720,7 +7776,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>27.3</v>
       </c>
@@ -7746,7 +7802,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>29.6</v>
       </c>
@@ -7772,7 +7828,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>31.8</v>
       </c>
@@ -7798,7 +7854,7 @@
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>34.1</v>
       </c>
@@ -7824,7 +7880,7 @@
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>36.4</v>
       </c>
@@ -7850,7 +7906,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>38.6</v>
       </c>
@@ -7876,7 +7932,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>40.9</v>
       </c>
@@ -7902,7 +7958,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>43.2</v>
       </c>
@@ -7928,7 +7984,7 @@
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>45.5</v>
       </c>
@@ -7954,7 +8010,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>47.7</v>
       </c>
@@ -7980,7 +8036,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>50</v>
       </c>
@@ -8006,7 +8062,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>52.3</v>
       </c>
@@ -8032,7 +8088,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>54.6</v>
       </c>
@@ -8058,7 +8114,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>56.8</v>
       </c>
@@ -8084,7 +8140,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>59.1</v>
       </c>
@@ -8110,7 +8166,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>61.4</v>
       </c>
@@ -8136,7 +8192,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>63.7</v>
       </c>
@@ -8162,7 +8218,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>65.900000000000006</v>
       </c>
@@ -8188,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8202,7 +8258,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8228,7 +8284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8248,7 +8304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8274,7 +8330,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2.5</v>
       </c>
@@ -8300,7 +8356,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5.0999999999999996</v>
       </c>
@@ -8326,7 +8382,7 @@
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>7.6</v>
       </c>
@@ -8352,7 +8408,7 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>10.1</v>
       </c>
@@ -8378,7 +8434,7 @@
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>12.6</v>
       </c>
@@ -8404,7 +8460,7 @@
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>15.2</v>
       </c>
@@ -8430,7 +8486,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>17.7</v>
       </c>
@@ -8456,7 +8512,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>20.2</v>
       </c>
@@ -8482,7 +8538,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>22.7</v>
       </c>
@@ -8508,7 +8564,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>25.3</v>
       </c>
@@ -8534,7 +8590,7 @@
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>27.8</v>
       </c>
@@ -8560,7 +8616,7 @@
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>30.3</v>
       </c>
@@ -8586,7 +8642,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>32.799999999999997</v>
       </c>
@@ -8612,7 +8668,7 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>35.4</v>
       </c>
@@ -8638,7 +8694,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>37.9</v>
       </c>
@@ -8664,7 +8720,7 @@
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>40.4</v>
       </c>
@@ -8690,7 +8746,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>42.9</v>
       </c>
@@ -8716,7 +8772,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>45.5</v>
       </c>
@@ -8742,7 +8798,7 @@
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>48</v>
       </c>
@@ -8768,7 +8824,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>50.5</v>
       </c>
@@ -8794,7 +8850,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>53</v>
       </c>
@@ -8820,7 +8876,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>55.6</v>
       </c>
@@ -8846,7 +8902,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>58.1</v>
       </c>
@@ -8872,7 +8928,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>60.6</v>
       </c>
@@ -8898,7 +8954,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>63.2</v>
       </c>
@@ -8924,7 +8980,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>65.7</v>
       </c>
@@ -8950,7 +9006,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>68.2</v>
       </c>
@@ -8976,7 +9032,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>70.7</v>
       </c>
@@ -9002,7 +9058,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>73.3</v>
       </c>
@@ -9028,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9042,7 +9098,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9068,7 +9124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9088,7 +9144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9114,7 +9170,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2.8</v>
       </c>
@@ -9140,7 +9196,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>5.6</v>
       </c>
@@ -9166,7 +9222,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>8.3000000000000007</v>
       </c>
@@ -9192,7 +9248,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>11.1</v>
       </c>
@@ -9218,7 +9274,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>13.9</v>
       </c>
@@ -9244,7 +9300,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>16.7</v>
       </c>
@@ -9270,7 +9326,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>19.5</v>
       </c>
@@ -9296,7 +9352,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>22.2</v>
       </c>
@@ -9322,7 +9378,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>25</v>
       </c>
@@ -9348,7 +9404,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>27.8</v>
       </c>
@@ -9374,7 +9430,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>30.6</v>
       </c>
@@ -9400,7 +9456,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>33.299999999999997</v>
       </c>
@@ -9426,7 +9482,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>36.1</v>
       </c>
@@ -9452,7 +9508,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>38.9</v>
       </c>
@@ -9478,7 +9534,7 @@
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>41.7</v>
       </c>
@@ -9504,7 +9560,7 @@
         <v>0.67400000000000004</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>44.5</v>
       </c>
@@ -9530,7 +9586,7 @@
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>47.2</v>
       </c>
@@ -9556,7 +9612,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>50</v>
       </c>
@@ -9582,7 +9638,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>52.8</v>
       </c>
@@ -9608,7 +9664,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>55.6</v>
       </c>
@@ -9634,7 +9690,7 @@
         <v>0.46700000000000003</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>58.4</v>
       </c>
@@ -9660,7 +9716,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>61.1</v>
       </c>
@@ -9686,7 +9742,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>63.9</v>
       </c>
@@ -9712,7 +9768,7 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>66.7</v>
       </c>
@@ -9738,7 +9794,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>69.5</v>
       </c>
@@ -9764,7 +9820,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>72.2</v>
       </c>
@@ -9790,7 +9846,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>75</v>
       </c>
@@ -9816,7 +9872,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>77.8</v>
       </c>
@@ -9842,7 +9898,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>80.599999999999994</v>
       </c>
@@ -9868,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9882,7 +9938,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9908,7 +9964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9928,7 +9984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -9954,7 +10010,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>3</v>
       </c>
@@ -9980,7 +10036,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>6.1</v>
       </c>
@@ -10006,7 +10062,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>9.1</v>
       </c>
@@ -10032,7 +10088,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>12.1</v>
       </c>
@@ -10058,7 +10114,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>15.2</v>
       </c>
@@ -10084,7 +10140,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>18.2</v>
       </c>
@@ -10110,7 +10166,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>21.2</v>
       </c>
@@ -10136,7 +10192,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>24.3</v>
       </c>
@@ -10162,7 +10218,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>27.3</v>
       </c>
@@ -10188,7 +10244,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>30.3</v>
       </c>
@@ -10214,7 +10270,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>33.299999999999997</v>
       </c>
@@ -10240,7 +10296,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>36.4</v>
       </c>
@@ -10266,7 +10322,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>39.4</v>
       </c>
@@ -10292,7 +10348,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>42.4</v>
       </c>
@@ -10318,7 +10374,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>45.5</v>
       </c>
@@ -10344,7 +10400,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>48.5</v>
       </c>
@@ -10370,7 +10426,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>51.5</v>
       </c>
@@ -10396,7 +10452,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>54.6</v>
       </c>
@@ -10422,7 +10478,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>57.6</v>
       </c>
@@ -10448,7 +10504,7 @@
         <v>0.61399999999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>60.6</v>
       </c>
@@ -10474,7 +10530,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>63.7</v>
       </c>
@@ -10500,7 +10556,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>66.7</v>
       </c>
@@ -10526,7 +10582,7 @@
         <v>0.443</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>69.7</v>
       </c>
@@ -10552,7 +10608,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>72.8</v>
       </c>
@@ -10578,7 +10634,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>75.8</v>
       </c>
@@ -10604,7 +10660,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>78.8</v>
       </c>
@@ -10630,7 +10686,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>81.900000000000006</v>
       </c>
@@ -10656,7 +10712,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>84.9</v>
       </c>
@@ -10682,7 +10738,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>87.9</v>
       </c>
@@ -10708,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10722,7 +10778,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10748,7 +10804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10768,7 +10824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10794,7 +10850,7 @@
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>3.3</v>
       </c>
@@ -10820,7 +10876,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>6.6</v>
       </c>
@@ -10846,7 +10902,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>9.9</v>
       </c>
@@ -10872,7 +10928,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>13.1</v>
       </c>
@@ -10898,7 +10954,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>16.399999999999999</v>
       </c>
@@ -10924,7 +10980,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>19.7</v>
       </c>
@@ -10950,7 +11006,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>23</v>
       </c>
@@ -10976,7 +11032,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>26.3</v>
       </c>
@@ -11002,7 +11058,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>29.6</v>
       </c>
@@ -11028,7 +11084,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>32.799999999999997</v>
       </c>
@@ -11054,7 +11110,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>36.1</v>
       </c>
@@ -11080,7 +11136,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>39.4</v>
       </c>
@@ -11106,7 +11162,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>42.7</v>
       </c>
@@ -11132,7 +11188,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>46</v>
       </c>
@@ -11158,7 +11214,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>49.3</v>
       </c>
@@ -11184,7 +11240,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>52.5</v>
       </c>
@@ -11210,7 +11266,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>55.8</v>
       </c>
@@ -11236,7 +11292,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>59.1</v>
       </c>
@@ -11262,7 +11318,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>62.4</v>
       </c>
@@ -11288,7 +11344,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>65.7</v>
       </c>
@@ -11314,7 +11370,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>69</v>
       </c>
@@ -11340,7 +11396,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>72.2</v>
       </c>
@@ -11366,7 +11422,7 @@
         <v>0.52200000000000002</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>75.5</v>
       </c>
@@ -11392,7 +11448,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>78.8</v>
       </c>
@@ -11418,7 +11474,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>82.1</v>
       </c>
@@ -11444,7 +11500,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>85.4</v>
       </c>
@@ -11470,7 +11526,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>88.7</v>
       </c>
@@ -11496,7 +11552,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>91.9</v>
       </c>
@@ -11522,7 +11578,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>95.2</v>
       </c>
@@ -11548,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11562,7 +11618,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11588,7 +11644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11608,7 +11664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11634,7 +11690,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>3.5</v>
       </c>
@@ -11660,7 +11716,7 @@
         <v>1.145</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>7.1</v>
       </c>
@@ -11686,7 +11742,7 @@
         <v>1.147</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>10.6</v>
       </c>
@@ -11712,7 +11768,7 @@
         <v>1.149</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>14.2</v>
       </c>
@@ -11738,7 +11794,7 @@
         <v>1.151</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>17.7</v>
       </c>
@@ -11764,7 +11820,7 @@
         <v>1.153</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>21.2</v>
       </c>
@@ -11790,7 +11846,7 @@
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>24.8</v>
       </c>
@@ -11816,7 +11872,7 @@
         <v>1.155</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>28.3</v>
       </c>
@@ -11842,7 +11898,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>31.9</v>
       </c>
@@ -11868,7 +11924,7 @@
         <v>1.155</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>35.4</v>
       </c>
@@ -11894,7 +11950,7 @@
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>38.9</v>
       </c>
@@ -11920,7 +11976,7 @@
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>42.5</v>
       </c>
@@ -11946,7 +12002,7 @@
         <v>1.147</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>46</v>
       </c>
@@ -11972,7 +12028,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>49.5</v>
       </c>
@@ -11998,7 +12054,7 @@
         <v>1.127</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>53.1</v>
       </c>
@@ -12024,7 +12080,7 @@
         <v>1.101</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>56.6</v>
       </c>
@@ -12050,7 +12106,7 @@
         <v>1.0589999999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>60.2</v>
       </c>
@@ -12076,7 +12132,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>63.7</v>
       </c>
@@ -12102,7 +12158,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>67.2</v>
       </c>
@@ -12128,7 +12184,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>70.8</v>
       </c>
@@ -12154,7 +12210,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>74.3</v>
       </c>
@@ -12180,7 +12236,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>77.900000000000006</v>
       </c>
@@ -12206,7 +12262,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>81.400000000000006</v>
       </c>
@@ -12232,7 +12288,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>84.9</v>
       </c>
@@ -12258,7 +12314,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>88.5</v>
       </c>
@@ -12284,7 +12340,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>92</v>
       </c>
@@ -12310,7 +12366,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>95.6</v>
       </c>
@@ -12336,7 +12392,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>99.1</v>
       </c>
@@ -12362,7 +12418,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>102.6</v>
       </c>
@@ -12388,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>30</v>
       </c>
@@ -12402,7 +12458,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>26</v>
       </c>
@@ -12428,7 +12484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>40</v>
       </c>
@@ -12448,7 +12504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0</v>
       </c>
@@ -12474,7 +12530,7 @@
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>3.8</v>
       </c>
@@ -12500,7 +12556,7 @@
         <v>1.3140000000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>7.6</v>
       </c>
@@ -12526,7 +12582,7 @@
         <v>1.3160000000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>11.4</v>
       </c>
@@ -12552,7 +12608,7 @@
         <v>1.3180000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>15.2</v>
       </c>
@@ -12578,7 +12634,7 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>19</v>
       </c>
@@ -12604,7 +12660,7 @@
         <v>1.323</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>22.8</v>
       </c>
@@ -12630,7 +12686,7 @@
         <v>1.325</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>26.5</v>
       </c>
@@ -12656,7 +12712,7 @@
         <v>1.3260000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>30.3</v>
       </c>
@@ -12682,7 +12738,7 @@
         <v>1.3260000000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>34.1</v>
       </c>
@@ -12708,7 +12764,7 @@
         <v>1.3260000000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>37.9</v>
       </c>
@@ -12734,7 +12790,7 @@
         <v>1.325</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>41.7</v>
       </c>
@@ -12760,7 +12816,7 @@
         <v>1.323</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>45.5</v>
       </c>
@@ -12786,7 +12842,7 @@
         <v>1.3180000000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>49.3</v>
       </c>
@@ -12812,7 +12868,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>53.1</v>
       </c>
@@ -12838,7 +12894,7 @@
         <v>1.296</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>56.9</v>
       </c>
@@ -12864,7 +12920,7 @@
         <v>1.268</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>60.7</v>
       </c>
@@ -12890,7 +12946,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>64.5</v>
       </c>
@@ -12916,7 +12972,7 @@
         <v>1.145</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>68.3</v>
       </c>
@@ -12942,7 +12998,7 @@
         <v>1.0589999999999999</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>72.099999999999994</v>
       </c>
@@ -12968,7 +13024,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>75.8</v>
       </c>
@@ -12994,7 +13050,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>79.599999999999994</v>
       </c>
@@ -13020,7 +13076,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>83.4</v>
       </c>
@@ -13046,7 +13102,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>87.2</v>
       </c>
@@ -13072,7 +13128,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>91</v>
       </c>
@@ -13098,7 +13154,7 @@
         <v>0.50900000000000001</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>94.8</v>
       </c>
@@ -13124,7 +13180,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>98.6</v>
       </c>
@@ -13150,7 +13206,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>102.4</v>
       </c>
@@ -13176,7 +13232,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>106.2</v>
       </c>
@@ -13202,7 +13258,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>110</v>
       </c>
@@ -13228,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>30</v>
       </c>
@@ -13242,7 +13298,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>26</v>
       </c>
@@ -13268,7 +13324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>40</v>
       </c>
@@ -13288,7 +13344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>0</v>
       </c>
@@ -13314,7 +13370,7 @@
         <v>1.4910000000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>4</v>
       </c>
@@ -13340,7 +13396,7 @@
         <v>1.4930000000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>8.1</v>
       </c>
@@ -13366,7 +13422,7 @@
         <v>1.4950000000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>12.1</v>
       </c>
@@ -13392,7 +13448,7 @@
         <v>1.498</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>16.2</v>
       </c>
@@ -13418,7 +13474,7 @@
         <v>1.5009999999999999</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>20.2</v>
       </c>
@@ -13444,7 +13500,7 @@
         <v>1.504</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>24.3</v>
       </c>
@@ -13470,7 +13526,7 @@
         <v>1.506</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>28.3</v>
       </c>
@@ -13496,7 +13552,7 @@
         <v>1.5069999999999999</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>32.4</v>
       </c>
@@ -13522,7 +13578,7 @@
         <v>1.508</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>36.4</v>
       </c>
@@ -13548,7 +13604,7 @@
         <v>1.508</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>40.5</v>
       </c>
@@ -13574,7 +13630,7 @@
         <v>1.508</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>44.5</v>
       </c>
@@ -13600,7 +13656,7 @@
         <v>1.5049999999999999</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>48.5</v>
       </c>
@@ -13626,7 +13682,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>52.6</v>
       </c>
@@ -13652,7 +13708,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>56.6</v>
       </c>
@@ -13678,7 +13734,7 @@
         <v>1.478</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>60.7</v>
       </c>
@@ -13704,7 +13760,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>64.7</v>
       </c>
@@ -13730,7 +13786,7 @@
         <v>1.395</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>68.8</v>
       </c>
@@ -13756,7 +13812,7 @@
         <v>1.3089999999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>72.8</v>
       </c>
@@ -13782,7 +13838,7 @@
         <v>1.2110000000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>76.900000000000006</v>
       </c>
@@ -13808,7 +13864,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>80.900000000000006</v>
       </c>
@@ -13834,7 +13890,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>84.9</v>
       </c>
@@ -13860,7 +13916,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>89</v>
       </c>
@@ -13886,7 +13942,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>93</v>
       </c>
@@ -13912,7 +13968,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>97.1</v>
       </c>
@@ -13938,7 +13994,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>101.1</v>
       </c>
@@ -13964,7 +14020,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>105.2</v>
       </c>
@@ -13990,7 +14046,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>109.2</v>
       </c>
@@ -14016,7 +14072,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>113.3</v>
       </c>
@@ -14042,7 +14098,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>117.3</v>
       </c>
@@ -14068,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>30</v>
       </c>
@@ -14082,7 +14138,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>26</v>
       </c>
@@ -14108,7 +14164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>40</v>
       </c>
@@ -14128,7 +14184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0</v>
       </c>
@@ -14154,7 +14210,7 @@
         <v>1.681</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>4.3</v>
       </c>
@@ -14180,7 +14236,7 @@
         <v>1.6839999999999999</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>8.6</v>
       </c>
@@ -14206,7 +14262,7 @@
         <v>1.6859999999999999</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>12.9</v>
       </c>
@@ -14232,7 +14288,7 @@
         <v>1.6890000000000001</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>17.2</v>
       </c>
@@ -14258,7 +14314,7 @@
         <v>1.6930000000000001</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>21.5</v>
       </c>
@@ -14284,7 +14340,7 @@
         <v>1.696</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>25.8</v>
       </c>
@@ -14310,7 +14366,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>30.1</v>
       </c>
@@ -14336,7 +14392,7 @@
         <v>1.7010000000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>34.4</v>
       </c>
@@ -14362,7 +14418,7 @@
         <v>1.702</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>38.700000000000003</v>
       </c>
@@ -14388,7 +14444,7 @@
         <v>1.702</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>42.9</v>
       </c>
@@ -14414,7 +14470,7 @@
         <v>1.702</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>47.2</v>
       </c>
@@ -14440,7 +14496,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>51.5</v>
       </c>
@@ -14466,7 +14522,7 @@
         <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>55.8</v>
       </c>
@@ -14492,7 +14548,7 @@
         <v>1.6870000000000001</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>60.1</v>
       </c>
@@ -14518,7 +14574,7 @@
         <v>1.6719999999999999</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>64.400000000000006</v>
       </c>
@@ -14544,7 +14600,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>68.7</v>
       </c>
@@ -14570,7 +14626,7 @@
         <v>1.583</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>73</v>
       </c>
@@ -14596,7 +14652,7 @@
         <v>1.488</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>77.3</v>
       </c>
@@ -14622,7 +14678,7 @@
         <v>1.3759999999999999</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>81.599999999999994</v>
       </c>
@@ -14648,7 +14704,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>85.9</v>
       </c>
@@ -14674,7 +14730,7 @@
         <v>1.1479999999999999</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>90.2</v>
       </c>
@@ -14700,7 +14756,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>94.5</v>
       </c>
@@ -14726,7 +14782,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>98.8</v>
       </c>
@@ -14752,7 +14808,7 @@
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>103.1</v>
       </c>
@@ -14778,7 +14834,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>107.4</v>
       </c>
@@ -14804,7 +14860,7 @@
         <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>111.7</v>
       </c>
@@ -14830,7 +14886,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>116</v>
       </c>
@@ -14856,7 +14912,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>120.3</v>
       </c>
@@ -14882,7 +14938,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>124.6</v>
       </c>
@@ -14908,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>30</v>
       </c>
@@ -14922,7 +14978,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>26</v>
       </c>
@@ -14948,7 +15004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>40</v>
       </c>
@@ -14968,7 +15024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>0</v>
       </c>
@@ -14994,7 +15050,7 @@
         <v>1.883</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>4.5</v>
       </c>
@@ -15020,7 +15076,7 @@
         <v>1.8859999999999999</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>9.1</v>
       </c>
@@ -15046,7 +15102,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>13.6</v>
       </c>
@@ -15072,7 +15128,7 @@
         <v>1.8919999999999999</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>18.2</v>
       </c>
@@ -15098,7 +15154,7 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>22.7</v>
       </c>
@@ -15124,7 +15180,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>27.3</v>
       </c>
@@ -15150,7 +15206,7 @@
         <v>1.903</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>31.8</v>
       </c>
@@ -15176,7 +15232,7 @@
         <v>1.9059999999999999</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>36.4</v>
       </c>
@@ -15202,7 +15258,7 @@
         <v>1.9079999999999999</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>40.9</v>
       </c>
@@ -15228,7 +15284,7 @@
         <v>1.9079999999999999</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>45.4</v>
       </c>
@@ -15254,7 +15310,7 @@
         <v>1.9079999999999999</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>50</v>
       </c>
@@ -15280,7 +15336,7 @@
         <v>1.9059999999999999</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>54.5</v>
       </c>
@@ -15306,7 +15362,7 @@
         <v>1.9019999999999999</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>59.1</v>
       </c>
@@ -15332,7 +15388,7 @@
         <v>1.8939999999999999</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>63.6</v>
       </c>
@@ -15358,7 +15414,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>68.2</v>
       </c>
@@ -15384,7 +15440,7 @@
         <v>1.8480000000000001</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>72.7</v>
       </c>
@@ -15410,7 +15466,7 @@
         <v>1.786</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>77.3</v>
       </c>
@@ -15436,7 +15492,7 @@
         <v>1.681</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>81.8</v>
       </c>
@@ -15462,7 +15518,7 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>86.3</v>
       </c>
@@ -15488,7 +15544,7 @@
         <v>1.427</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>90.9</v>
       </c>
@@ -15514,7 +15570,7 @@
         <v>1.2969999999999999</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>95.4</v>
       </c>
@@ -15540,7 +15596,7 @@
         <v>1.1639999999999999</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>100</v>
       </c>
@@ -15566,7 +15622,7 @@
         <v>1.0289999999999999</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>104.5</v>
       </c>
@@ -15592,7 +15648,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>109.1</v>
       </c>
@@ -15618,7 +15674,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>113.6</v>
       </c>
@@ -15644,7 +15700,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>118.2</v>
       </c>
@@ -15670,7 +15726,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>122.7</v>
       </c>
@@ -15696,7 +15752,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>127.2</v>
       </c>
@@ -15722,7 +15778,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>131.80000000000001</v>
       </c>
@@ -15748,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>30</v>
       </c>
@@ -15762,7 +15818,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>26</v>
       </c>
@@ -15788,7 +15844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>40</v>
       </c>
@@ -15808,7 +15864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>0</v>
       </c>
@@ -15834,7 +15890,7 @@
         <v>2.0960000000000001</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>4.8</v>
       </c>
@@ -15860,7 +15916,7 @@
         <v>2.0990000000000002</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>9.6</v>
       </c>
@@ -15886,7 +15942,7 @@
         <v>2.1030000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>14.4</v>
       </c>
@@ -15912,7 +15968,7 @@
         <v>2.1059999999999999</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>19.2</v>
       </c>
@@ -15938,7 +15994,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>24</v>
       </c>
@@ -15964,7 +16020,7 @@
         <v>2.1139999999999999</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>28.8</v>
       </c>
@@ -15990,7 +16046,7 @@
         <v>2.1190000000000002</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>33.6</v>
       </c>
@@ -16016,7 +16072,7 @@
         <v>2.1219999999999999</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>38.4</v>
       </c>
@@ -16042,7 +16098,7 @@
         <v>2.1240000000000001</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>43.2</v>
       </c>
@@ -16068,7 +16124,7 @@
         <v>2.1259999999999999</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>48</v>
       </c>
@@ -16094,7 +16150,7 @@
         <v>2.1259999999999999</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>52.7</v>
       </c>
@@ -16120,7 +16176,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>57.5</v>
       </c>
@@ -16146,7 +16202,7 @@
         <v>2.121</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>62.3</v>
       </c>
@@ -16172,7 +16228,7 @@
         <v>2.113</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>67.099999999999994</v>
       </c>
@@ -16198,7 +16254,7 @@
         <v>2.0990000000000002</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>71.900000000000006</v>
       </c>
@@ -16224,7 +16280,7 @@
         <v>2.0680000000000001</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>76.7</v>
       </c>
@@ -16250,7 +16306,7 @@
         <v>2.0019999999999998</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>81.5</v>
       </c>
@@ -16276,7 +16332,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>86.3</v>
       </c>
@@ -16302,7 +16358,7 @@
         <v>1.746</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>91.1</v>
       </c>
@@ -16328,7 +16384,7 @@
         <v>1.6020000000000001</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>95.9</v>
       </c>
@@ -16354,7 +16410,7 @@
         <v>1.456</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>100.7</v>
       </c>
@@ -16380,7 +16436,7 @@
         <v>1.3069999999999999</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>105.5</v>
       </c>
@@ -16406,7 +16462,7 @@
         <v>1.155</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>110.3</v>
       </c>
@@ -16432,7 +16488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>115.1</v>
       </c>
@@ -16458,7 +16514,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>119.9</v>
       </c>
@@ -16484,7 +16540,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>124.7</v>
       </c>
@@ -16510,7 +16566,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>129.5</v>
       </c>
@@ -16536,7 +16592,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>134.30000000000001</v>
       </c>
@@ -16562,7 +16618,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>139.1</v>
       </c>
@@ -16588,7 +16644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>30</v>
       </c>
@@ -16602,7 +16658,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>26</v>
       </c>
@@ -16628,7 +16684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>40</v>
       </c>
@@ -16648,7 +16704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>0</v>
       </c>
@@ -16674,7 +16730,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>5</v>
       </c>
@@ -16700,7 +16756,7 @@
         <v>2.3239999999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>10.1</v>
       </c>
@@ -16726,7 +16782,7 @@
         <v>2.3279999999999998</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>15.1</v>
       </c>
@@ -16752,7 +16808,7 @@
         <v>2.3319999999999999</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>20.2</v>
       </c>
@@ -16778,7 +16834,7 @@
         <v>2.3359999999999999</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>25.2</v>
       </c>
@@ -16804,7 +16860,7 @@
         <v>2.3410000000000002</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>30.3</v>
       </c>
@@ -16830,7 +16886,7 @@
         <v>2.3460000000000001</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>35.299999999999997</v>
       </c>
@@ -16856,7 +16912,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>40.4</v>
       </c>
@@ -16882,7 +16938,7 @@
         <v>2.3530000000000002</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>45.4</v>
       </c>
@@ -16908,7 +16964,7 @@
         <v>2.3559999999999999</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>50.5</v>
       </c>
@@ -16934,7 +16990,7 @@
         <v>2.3570000000000002</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>55.5</v>
       </c>
@@ -16960,7 +17016,7 @@
         <v>2.3559999999999999</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>60.6</v>
       </c>
@@ -16986,7 +17042,7 @@
         <v>2.3530000000000002</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>65.599999999999994</v>
       </c>
@@ -17012,7 +17068,7 @@
         <v>2.3450000000000002</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>70.7</v>
       </c>
@@ -17038,7 +17094,7 @@
         <v>2.3319999999999999</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>75.7</v>
       </c>
@@ -17064,7 +17120,7 @@
         <v>2.3010000000000002</v>
       </c>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>80.7</v>
       </c>
@@ -17090,7 +17146,7 @@
         <v>2.2330000000000001</v>
       </c>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>85.8</v>
       </c>
@@ -17116,7 +17172,7 @@
         <v>2.1080000000000001</v>
       </c>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>90.8</v>
       </c>
@@ -17142,7 +17198,7 @@
         <v>1.9510000000000001</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>95.9</v>
       </c>
@@ -17168,7 +17224,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>100.9</v>
       </c>
@@ -17194,7 +17250,7 @@
         <v>1.627</v>
       </c>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>106</v>
       </c>
@@ -17220,7 +17276,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>111</v>
       </c>
@@ -17246,7 +17302,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>116.1</v>
       </c>
@@ -17272,7 +17328,7 @@
         <v>1.117</v>
       </c>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>121.1</v>
       </c>
@@ -17298,7 +17354,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>126.2</v>
       </c>
@@ -17324,7 +17380,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>131.19999999999999</v>
       </c>
@@ -17350,7 +17406,7 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>136.30000000000001</v>
       </c>
@@ -17376,7 +17432,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>141.30000000000001</v>
       </c>
@@ -17402,7 +17458,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>146.30000000000001</v>
       </c>
@@ -17428,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>30</v>
       </c>
@@ -17442,7 +17498,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>26</v>
       </c>
@@ -17468,7 +17524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>40</v>
       </c>
@@ -17488,7 +17544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>0</v>
       </c>
@@ -17514,7 +17570,7 @@
         <v>2.556</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>5.3</v>
       </c>
@@ -17540,7 +17596,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>10.6</v>
       </c>
@@ -17566,7 +17622,7 @@
         <v>2.5640000000000001</v>
       </c>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>15.9</v>
       </c>
@@ -17592,7 +17648,7 @@
         <v>2.5680000000000001</v>
       </c>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>21.2</v>
       </c>
@@ -17618,7 +17674,7 @@
         <v>2.573</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>26.5</v>
       </c>
@@ -17644,7 +17700,7 @@
         <v>2.5790000000000002</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>31.8</v>
       </c>
@@ -17670,7 +17726,7 @@
         <v>2.5840000000000001</v>
       </c>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>37.1</v>
       </c>
@@ -17696,7 +17752,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>42.4</v>
       </c>
@@ -17722,7 +17778,7 @@
         <v>2.5939999999999999</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>47.7</v>
       </c>
@@ -17748,7 +17804,7 @@
         <v>2.597</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>53</v>
       </c>
@@ -17774,7 +17830,7 @@
         <v>2.5990000000000002</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>58.3</v>
       </c>
@@ -17800,7 +17856,7 @@
         <v>2.5990000000000002</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>63.6</v>
       </c>
@@ -17826,7 +17882,7 @@
         <v>2.597</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>68.900000000000006</v>
       </c>
@@ -17852,7 +17908,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>74.2</v>
       </c>
@@ -17878,7 +17934,7 @@
         <v>2.5779999999999998</v>
       </c>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>79.5</v>
       </c>
@@ -17904,7 +17960,7 @@
         <v>2.5489999999999999</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>84.8</v>
       </c>
@@ -17930,7 +17986,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>90.1</v>
       </c>
@@ -17956,7 +18012,7 @@
         <v>2.3450000000000002</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>95.4</v>
       </c>
@@ -17982,7 +18038,7 @@
         <v>2.1709999999999998</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>100.7</v>
       </c>
@@ -18008,7 +18064,7 @@
         <v>1.992</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>106</v>
       </c>
@@ -18034,7 +18090,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>111.3</v>
       </c>
@@ -18060,7 +18116,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>116.6</v>
       </c>
@@ -18086,7 +18142,7 @@
         <v>1.4359999999999999</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>121.9</v>
       </c>
@@ -18112,7 +18168,7 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>127.2</v>
       </c>
@@ -18138,7 +18194,7 @@
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>132.5</v>
       </c>
@@ -18164,7 +18220,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>137.80000000000001</v>
       </c>
@@ -18190,7 +18246,7 @@
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>143.1</v>
       </c>
@@ -18216,7 +18272,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>148.4</v>
       </c>
@@ -18242,7 +18298,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>153.69999999999999</v>
       </c>
@@ -18268,7 +18324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>30</v>
       </c>
@@ -18282,7 +18338,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>26</v>
       </c>
@@ -18308,7 +18364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>40</v>
       </c>
@@ -18328,7 +18384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>0</v>
       </c>
@@ -18354,7 +18410,7 @@
         <v>2.8029999999999999</v>
       </c>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>5.6</v>
       </c>
@@ -18380,7 +18436,7 @@
         <v>2.8069999999999999</v>
       </c>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>11.1</v>
       </c>
@@ -18406,7 +18462,7 @@
         <v>2.8119999999999998</v>
       </c>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>16.7</v>
       </c>
@@ -18432,7 +18488,7 @@
         <v>2.8170000000000002</v>
       </c>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>22.2</v>
       </c>
@@ -18458,7 +18514,7 @@
         <v>2.8220000000000001</v>
       </c>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>27.8</v>
       </c>
@@ -18484,7 +18540,7 @@
         <v>2.8279999999999998</v>
       </c>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>33.299999999999997</v>
       </c>
@@ -18510,7 +18566,7 @@
         <v>2.8340000000000001</v>
       </c>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>38.9</v>
       </c>
@@ -18536,7 +18592,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>44.4</v>
       </c>
@@ -18562,7 +18618,7 @@
         <v>2.8460000000000001</v>
       </c>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>50</v>
       </c>
@@ -18588,7 +18644,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>55.5</v>
       </c>
@@ -18614,7 +18670,7 @@
         <v>2.8530000000000002</v>
       </c>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>61.1</v>
       </c>
@@ -18640,7 +18696,7 @@
         <v>2.8540000000000001</v>
       </c>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>66.599999999999994</v>
       </c>
@@ -18666,7 +18722,7 @@
         <v>2.8530000000000002</v>
       </c>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>72.2</v>
       </c>
@@ -18692,7 +18748,7 @@
         <v>2.8479999999999999</v>
       </c>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>77.7</v>
       </c>
@@ -18718,7 +18774,7 @@
         <v>2.8359999999999999</v>
       </c>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>83.3</v>
       </c>
@@ -18744,7 +18800,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>88.8</v>
       </c>
@@ -18770,7 +18826,7 @@
         <v>2.742</v>
       </c>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>94.4</v>
       </c>
@@ -18796,7 +18852,7 @@
         <v>2.5990000000000002</v>
       </c>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>99.9</v>
       </c>
@@ -18822,7 +18878,7 @@
         <v>2.4049999999999998</v>
       </c>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>105.5</v>
       </c>
@@ -18848,7 +18904,7 @@
         <v>2.2080000000000002</v>
       </c>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>111</v>
       </c>
@@ -18874,7 +18930,7 @@
         <v>2.0070000000000001</v>
       </c>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>116.6</v>
       </c>
@@ -18900,7 +18956,7 @@
         <v>1.8009999999999999</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>122.1</v>
       </c>
@@ -18926,7 +18982,7 @@
         <v>1.591</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>127.7</v>
       </c>
@@ -18952,7 +19008,7 @@
         <v>1.3779999999999999</v>
       </c>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>133.19999999999999</v>
       </c>
@@ -18978,7 +19034,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="820" spans="1:8">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>138.80000000000001</v>
       </c>
@@ -19004,7 +19060,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="821" spans="1:8">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>144.30000000000001</v>
       </c>
@@ -19030,7 +19086,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>149.9</v>
       </c>
@@ -19056,7 +19112,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>155.4</v>
       </c>
@@ -19082,7 +19138,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>161</v>
       </c>
@@ -19108,7 +19164,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>30</v>
       </c>
@@ -19122,7 +19178,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>26</v>
       </c>
@@ -19148,7 +19204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>40</v>
       </c>
@@ -19168,7 +19224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>0</v>
       </c>
@@ -19194,7 +19250,7 @@
         <v>3.0619999999999998</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>5.8</v>
       </c>
@@ -19220,7 +19276,7 @@
         <v>3.0659999999999998</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>11.6</v>
       </c>
@@ -19246,7 +19302,7 @@
         <v>3.0710000000000002</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>17.399999999999999</v>
       </c>
@@ -19272,7 +19328,7 @@
         <v>3.0760000000000001</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>23.2</v>
       </c>
@@ -19298,7 +19354,7 @@
         <v>3.0819999999999999</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>29</v>
       </c>
@@ -19324,7 +19380,7 @@
         <v>3.0880000000000001</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>34.799999999999997</v>
       </c>
@@ -19350,7 +19406,7 @@
         <v>3.0950000000000002</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>40.6</v>
       </c>
@@ -19376,7 +19432,7 @@
         <v>3.1019999999999999</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>46.4</v>
       </c>
@@ -19402,7 +19458,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>52.2</v>
       </c>
@@ -19428,7 +19484,7 @@
         <v>3.1150000000000002</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>58</v>
       </c>
@@ -19454,7 +19510,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>63.8</v>
       </c>
@@ -19480,7 +19536,7 @@
         <v>3.1219999999999999</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>69.599999999999994</v>
       </c>
@@ -19506,7 +19562,7 @@
         <v>3.1219999999999999</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>75.5</v>
       </c>
@@ -19532,7 +19588,7 @@
         <v>3.1179999999999999</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>81.3</v>
       </c>
@@ -19558,7 +19614,7 @@
         <v>3.1080000000000001</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>87.1</v>
       </c>
@@ -19584,7 +19640,7 @@
         <v>3.085</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>92.9</v>
       </c>
@@ -19610,7 +19666,7 @@
         <v>3.0219999999999998</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>98.7</v>
       </c>
@@ -19636,7 +19692,7 @@
         <v>2.8719999999999999</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>104.5</v>
       </c>
@@ -19662,7 +19718,7 @@
         <v>2.6589999999999998</v>
       </c>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>110.3</v>
       </c>
@@ -19688,7 +19744,7 @@
         <v>2.4409999999999998</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>116.1</v>
       </c>
@@ -19714,7 +19770,7 @@
         <v>2.218</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>121.9</v>
       </c>
@@ -19740,7 +19796,7 @@
         <v>1.9910000000000001</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>127.7</v>
       </c>
@@ -19766,7 +19822,7 @@
         <v>1.7589999999999999</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>133.5</v>
       </c>
@@ -19792,7 +19848,7 @@
         <v>1.524</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>139.30000000000001</v>
       </c>
@@ -19818,7 +19874,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>145.1</v>
       </c>
@@ -19844,7 +19900,7 @@
         <v>1.0349999999999999</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>150.9</v>
       </c>
@@ -19870,7 +19926,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>156.69999999999999</v>
       </c>
@@ -19896,7 +19952,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>162.5</v>
       </c>
@@ -19922,7 +19978,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>168.3</v>
       </c>
@@ -19948,7 +20004,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>30</v>
       </c>
@@ -19962,7 +20018,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>26</v>
       </c>
@@ -19988,7 +20044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>40</v>
       </c>
@@ -20008,7 +20064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>0</v>
       </c>
@@ -20034,7 +20090,7 @@
         <v>3.331</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>6.1</v>
       </c>
@@ -20060,7 +20116,7 @@
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>12.1</v>
       </c>
@@ -20086,7 +20142,7 @@
         <v>3.3410000000000002</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>18.2</v>
       </c>
@@ -20112,7 +20168,7 @@
         <v>3.347</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>24.2</v>
       </c>
@@ -20138,7 +20194,7 @@
         <v>3.3530000000000002</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>30.3</v>
       </c>
@@ -20164,7 +20220,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>36.299999999999997</v>
       </c>
@@ -20190,7 +20246,7 @@
         <v>3.3679999999999999</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>42.4</v>
       </c>
@@ -20216,7 +20272,7 @@
         <v>3.3759999999999999</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>48.4</v>
       </c>
@@ -20242,7 +20298,7 @@
         <v>3.3839999999999999</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>54.5</v>
       </c>
@@ -20268,7 +20324,7 @@
         <v>3.3940000000000001</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>60.5</v>
       </c>
@@ -20294,7 +20350,7 @@
         <v>3.4020000000000001</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>66.599999999999994</v>
       </c>
@@ -20320,7 +20376,7 @@
         <v>3.4089999999999998</v>
       </c>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>72.7</v>
       </c>
@@ -20346,7 +20402,7 @@
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>78.7</v>
       </c>
@@ -20372,7 +20428,7 @@
         <v>3.411</v>
       </c>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>84.8</v>
       </c>
@@ -20398,7 +20454,7 @@
         <v>3.403</v>
       </c>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>90.8</v>
       </c>
@@ -20424,7 +20480,7 @@
         <v>3.3809999999999998</v>
       </c>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>96.9</v>
       </c>
@@ -20450,7 +20506,7 @@
         <v>3.3239999999999998</v>
       </c>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>102.9</v>
       </c>
@@ -20476,7 +20532,7 @@
         <v>3.1680000000000001</v>
       </c>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>109</v>
       </c>
@@ -20502,7 +20558,7 @@
         <v>2.9319999999999999</v>
       </c>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>115</v>
       </c>
@@ -20528,7 +20584,7 @@
         <v>2.6930000000000001</v>
       </c>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>121.1</v>
       </c>
@@ -20554,7 +20610,7 @@
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>127.2</v>
       </c>
@@ -20580,7 +20636,7 @@
         <v>2.1970000000000001</v>
       </c>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>133.19999999999999</v>
       </c>
@@ -20606,7 +20662,7 @@
         <v>1.9419999999999999</v>
       </c>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>139.30000000000001</v>
       </c>
@@ -20632,7 +20688,7 @@
         <v>1.6830000000000001</v>
       </c>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>145.30000000000001</v>
       </c>
@@ -20658,7 +20714,7 @@
         <v>1.4159999999999999</v>
       </c>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>151.4</v>
       </c>
@@ -20684,7 +20740,7 @@
         <v>1.145</v>
       </c>
     </row>
-    <row r="895" spans="1:8">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>157.4</v>
       </c>
@@ -20710,7 +20766,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>163.5</v>
       </c>
@@ -20736,7 +20792,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="897" spans="1:8">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>169.5</v>
       </c>
@@ -20762,7 +20818,7 @@
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="898" spans="1:8">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>175.6</v>
       </c>
@@ -20788,7 +20844,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>30</v>
       </c>
@@ -20802,7 +20858,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>26</v>
       </c>
@@ -20828,7 +20884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>40</v>
       </c>
@@ -20848,7 +20904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>0</v>
       </c>
@@ -20874,7 +20930,7 @@
         <v>3.6480000000000001</v>
       </c>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>6.3</v>
       </c>
@@ -20900,7 +20956,7 @@
         <v>3.6539999999999999</v>
       </c>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>12.6</v>
       </c>
@@ -20926,7 +20982,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>18.899999999999999</v>
       </c>
@@ -20952,7 +21008,7 @@
         <v>3.6680000000000001</v>
       </c>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>25.2</v>
       </c>
@@ -20978,7 +21034,7 @@
         <v>3.6760000000000002</v>
       </c>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>31.5</v>
       </c>
@@ -21004,7 +21060,7 @@
         <v>3.6850000000000001</v>
       </c>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>37.799999999999997</v>
       </c>
@@ -21030,7 +21086,7 @@
         <v>3.6949999999999998</v>
       </c>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>44.1</v>
       </c>
@@ -21056,7 +21112,7 @@
         <v>3.7050000000000001</v>
       </c>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>50.5</v>
       </c>
@@ -21082,7 +21138,7 @@
         <v>3.7149999999999999</v>
       </c>
     </row>
-    <row r="915" spans="1:8">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>56.8</v>
       </c>
@@ -21108,7 +21164,7 @@
         <v>3.726</v>
       </c>
     </row>
-    <row r="916" spans="1:8">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>63.1</v>
       </c>
@@ -21134,7 +21190,7 @@
         <v>3.7349999999999999</v>
       </c>
     </row>
-    <row r="917" spans="1:8">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>69.400000000000006</v>
       </c>
@@ -21160,7 +21216,7 @@
         <v>3.7410000000000001</v>
       </c>
     </row>
-    <row r="918" spans="1:8">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>75.7</v>
       </c>
@@ -21186,7 +21242,7 @@
         <v>3.742</v>
       </c>
     </row>
-    <row r="919" spans="1:8">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>82</v>
       </c>
@@ -21212,7 +21268,7 @@
         <v>3.7389999999999999</v>
       </c>
     </row>
-    <row r="920" spans="1:8">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>88.3</v>
       </c>
@@ -21238,7 +21294,7 @@
         <v>3.7280000000000002</v>
       </c>
     </row>
-    <row r="921" spans="1:8">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>94.6</v>
       </c>
@@ -21264,7 +21320,7 @@
         <v>3.7029999999999998</v>
       </c>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>100.9</v>
       </c>
@@ -21290,7 +21346,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>107.2</v>
       </c>
@@ -21316,7 +21372,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="924" spans="1:8">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>113.5</v>
       </c>
@@ -21342,7 +21398,7 @@
         <v>3.2269999999999999</v>
       </c>
     </row>
-    <row r="925" spans="1:8">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>119.8</v>
       </c>
@@ -21368,7 +21424,7 @@
         <v>2.964</v>
       </c>
     </row>
-    <row r="926" spans="1:8">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>126.1</v>
       </c>
@@ -21394,7 +21450,7 @@
         <v>2.6949999999999998</v>
       </c>
     </row>
-    <row r="927" spans="1:8">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>132.4</v>
       </c>
@@ -21420,7 +21476,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="928" spans="1:8">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>138.69999999999999</v>
       </c>
@@ -21446,7 +21502,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>145</v>
       </c>
@@ -21472,7 +21528,7 @@
         <v>1.853</v>
       </c>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>151.4</v>
       </c>
@@ -21498,7 +21554,7 @@
         <v>1.5609999999999999</v>
       </c>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>157.69999999999999</v>
       </c>
@@ -21524,7 +21580,7 @@
         <v>1.262</v>
       </c>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>164</v>
       </c>
@@ -21550,7 +21606,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>170.3</v>
       </c>
@@ -21576,7 +21632,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>176.6</v>
       </c>
@@ -21602,7 +21658,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>182.9</v>
       </c>
@@ -21628,7 +21684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:8">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>30</v>
       </c>
@@ -21642,7 +21698,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="941" spans="1:8">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>26</v>
       </c>
@@ -21668,7 +21724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="942" spans="1:8">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>40</v>
       </c>
@@ -21688,7 +21744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="943" spans="1:8">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>0</v>
       </c>
@@ -21714,7 +21770,7 @@
         <v>3.9980000000000002</v>
       </c>
     </row>
-    <row r="944" spans="1:8">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>6.6</v>
       </c>
@@ -21740,7 +21796,7 @@
         <v>4.0049999999999999</v>
       </c>
     </row>
-    <row r="945" spans="1:8">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>13.1</v>
       </c>
@@ -21766,7 +21822,7 @@
         <v>4.0129999999999999</v>
       </c>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>19.7</v>
       </c>
@@ -21792,7 +21848,7 @@
         <v>4.0220000000000002</v>
       </c>
     </row>
-    <row r="947" spans="1:8">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>26.2</v>
       </c>
@@ -21818,7 +21874,7 @@
         <v>4.0309999999999997</v>
       </c>
     </row>
-    <row r="948" spans="1:8">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>32.799999999999997</v>
       </c>
@@ -21844,7 +21900,7 @@
         <v>4.0410000000000004</v>
       </c>
     </row>
-    <row r="949" spans="1:8">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>39.299999999999997</v>
       </c>
@@ -21870,7 +21926,7 @@
         <v>4.0510000000000002</v>
       </c>
     </row>
-    <row r="950" spans="1:8">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>45.9</v>
       </c>
@@ -21896,7 +21952,7 @@
         <v>4.0609999999999999</v>
       </c>
     </row>
-    <row r="951" spans="1:8">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>52.4</v>
       </c>
@@ -21922,7 +21978,7 @@
         <v>4.0709999999999997</v>
       </c>
     </row>
-    <row r="952" spans="1:8">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>59</v>
       </c>
@@ -21948,7 +22004,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="953" spans="1:8">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>65.5</v>
       </c>
@@ -21974,7 +22030,7 @@
         <v>4.0890000000000004</v>
       </c>
     </row>
-    <row r="954" spans="1:8">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>72.099999999999994</v>
       </c>
@@ -22000,7 +22056,7 @@
         <v>4.0960000000000001</v>
       </c>
     </row>
-    <row r="955" spans="1:8">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>78.599999999999994</v>
       </c>
@@ -22026,7 +22082,7 @@
         <v>4.0979999999999999</v>
       </c>
     </row>
-    <row r="956" spans="1:8">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>85.2</v>
       </c>
@@ -22052,7 +22108,7 @@
         <v>4.0919999999999996</v>
       </c>
     </row>
-    <row r="957" spans="1:8">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>91.7</v>
       </c>
@@ -22078,7 +22134,7 @@
         <v>4.0780000000000003</v>
       </c>
     </row>
-    <row r="958" spans="1:8">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>98.3</v>
       </c>
@@ -22104,7 +22160,7 @@
         <v>4.0519999999999996</v>
       </c>
     </row>
-    <row r="959" spans="1:8">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>104.8</v>
       </c>
@@ -22130,7 +22186,7 @@
         <v>4.0010000000000003</v>
       </c>
     </row>
-    <row r="960" spans="1:8">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>111.4</v>
       </c>
@@ -22156,7 +22212,7 @@
         <v>3.851</v>
       </c>
     </row>
-    <row r="961" spans="1:8">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>117.9</v>
       </c>
@@ -22182,7 +22238,7 @@
         <v>3.5590000000000002</v>
       </c>
     </row>
-    <row r="962" spans="1:8">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>124.5</v>
       </c>
@@ -22208,7 +22264,7 @@
         <v>3.2690000000000001</v>
       </c>
     </row>
-    <row r="963" spans="1:8">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>131</v>
       </c>
@@ -22234,7 +22290,7 @@
         <v>2.9740000000000002</v>
       </c>
     </row>
-    <row r="964" spans="1:8">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>137.6</v>
       </c>
@@ -22260,7 +22316,7 @@
         <v>2.6709999999999998</v>
       </c>
     </row>
-    <row r="965" spans="1:8">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>144.1</v>
       </c>
@@ -22286,7 +22342,7 @@
         <v>2.3639999999999999</v>
       </c>
     </row>
-    <row r="966" spans="1:8">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>150.69999999999999</v>
       </c>
@@ -22312,7 +22368,7 @@
         <v>2.0489999999999999</v>
       </c>
     </row>
-    <row r="967" spans="1:8">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>157.19999999999999</v>
       </c>
@@ -22338,7 +22394,7 @@
         <v>1.726</v>
       </c>
     </row>
-    <row r="968" spans="1:8">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>163.80000000000001</v>
       </c>
@@ -22364,7 +22420,7 @@
         <v>1.399</v>
       </c>
     </row>
-    <row r="969" spans="1:8">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>170.3</v>
       </c>
@@ -22390,7 +22446,7 @@
         <v>1.0640000000000001</v>
       </c>
     </row>
-    <row r="970" spans="1:8">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>176.9</v>
       </c>
@@ -22416,7 +22472,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="971" spans="1:8">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>183.4</v>
       </c>
@@ -22442,7 +22498,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="972" spans="1:8">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>190</v>
       </c>
@@ -22468,7 +22524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:8">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>30</v>
       </c>
@@ -22482,7 +22538,7 @@
         <v>26999</v>
       </c>
     </row>
-    <row r="978" spans="1:8">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>26</v>
       </c>
@@ -22508,7 +22564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="979" spans="1:8">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>40</v>
       </c>
@@ -22528,7 +22584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="980" spans="1:8">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>0</v>
       </c>
@@ -22554,7 +22610,7 @@
         <v>4.3940000000000001</v>
       </c>
     </row>
-    <row r="981" spans="1:8">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>6.8</v>
       </c>
@@ -22580,7 +22636,7 @@
         <v>4.4029999999999996</v>
       </c>
     </row>
-    <row r="982" spans="1:8">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>13.6</v>
       </c>
@@ -22606,7 +22662,7 @@
         <v>4.4139999999999997</v>
       </c>
     </row>
-    <row r="983" spans="1:8">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>20.399999999999999</v>
       </c>
@@ -22632,7 +22688,7 @@
         <v>4.4249999999999998</v>
       </c>
     </row>
-    <row r="984" spans="1:8">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>27.2</v>
       </c>
@@ -22658,7 +22714,7 @@
         <v>4.4349999999999996</v>
       </c>
     </row>
-    <row r="985" spans="1:8">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>34</v>
       </c>
@@ -22684,7 +22740,7 @@
         <v>4.4459999999999997</v>
       </c>
     </row>
-    <row r="986" spans="1:8">
+    <row r="986" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>40.799999999999997</v>
       </c>
@@ -22710,7 +22766,7 @@
         <v>4.4560000000000004</v>
       </c>
     </row>
-    <row r="987" spans="1:8">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>47.6</v>
       </c>
@@ -22736,7 +22792,7 @@
         <v>4.4669999999999996</v>
       </c>
     </row>
-    <row r="988" spans="1:8">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>54.4</v>
       </c>
@@ -22762,7 +22818,7 @@
         <v>4.4740000000000002</v>
       </c>
     </row>
-    <row r="989" spans="1:8">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>61.2</v>
       </c>
@@ -22788,7 +22844,7 @@
         <v>4.4790000000000001</v>
       </c>
     </row>
-    <row r="990" spans="1:8">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>68</v>
       </c>
@@ -22814,7 +22870,7 @@
         <v>4.4829999999999997</v>
       </c>
     </row>
-    <row r="991" spans="1:8">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>74.8</v>
       </c>
@@ -22840,7 +22896,7 @@
         <v>4.4850000000000003</v>
       </c>
     </row>
-    <row r="992" spans="1:8">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>81.5</v>
       </c>
@@ -22866,7 +22922,7 @@
         <v>4.484</v>
       </c>
     </row>
-    <row r="993" spans="1:8">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>88.3</v>
       </c>
@@ -22892,7 +22948,7 @@
         <v>4.4809999999999999</v>
       </c>
     </row>
-    <row r="994" spans="1:8">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>95.1</v>
       </c>
@@ -22918,7 +22974,7 @@
         <v>4.4690000000000003</v>
       </c>
     </row>
-    <row r="995" spans="1:8">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>101.9</v>
       </c>
@@ -22944,35 +23000,33 @@
         <v>4.4470000000000001</v>
       </c>
     </row>
-    <row r="996" spans="1:8">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>108.7</v>
       </c>
-      <c r="B996" t="s">
-        <v>46</v>
-      </c>
-      <c r="C996" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D996" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E996" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F996" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G996" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="997" spans="1:8">
+      <c r="B996">
+        <v>0.65</v>
+      </c>
+      <c r="C996">
+        <v>0</v>
+      </c>
+      <c r="D996">
+        <v>0</v>
+      </c>
+      <c r="E996">
+        <v>0</v>
+      </c>
+      <c r="F996">
+        <v>0</v>
+      </c>
+      <c r="G996">
+        <v>0</v>
+      </c>
+      <c r="H996">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>115.5</v>
       </c>
@@ -22998,7 +23052,7 @@
         <v>4.2789999999999999</v>
       </c>
     </row>
-    <row r="998" spans="1:8">
+    <row r="998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>122.3</v>
       </c>
@@ -23024,7 +23078,7 @@
         <v>3.9449999999999998</v>
       </c>
     </row>
-    <row r="999" spans="1:8">
+    <row r="999" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>129.1</v>
       </c>
@@ -23050,7 +23104,7 @@
         <v>3.6190000000000002</v>
       </c>
     </row>
-    <row r="1000" spans="1:8">
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>135.9</v>
       </c>
@@ -23076,7 +23130,7 @@
         <v>3.2890000000000001</v>
       </c>
     </row>
-    <row r="1001" spans="1:8">
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>142.69999999999999</v>
       </c>
@@ -23102,7 +23156,7 @@
         <v>2.9529999999999998</v>
       </c>
     </row>
-    <row r="1002" spans="1:8">
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1002">
         <v>149.5</v>
       </c>
@@ -23128,7 +23182,7 @@
         <v>2.6120000000000001</v>
       </c>
     </row>
-    <row r="1003" spans="1:8">
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>156.30000000000001</v>
       </c>
@@ -23154,7 +23208,7 @@
         <v>2.266</v>
       </c>
     </row>
-    <row r="1004" spans="1:8">
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1004">
         <v>163.1</v>
       </c>
@@ -23180,7 +23234,7 @@
         <v>1.9119999999999999</v>
       </c>
     </row>
-    <row r="1005" spans="1:8">
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1005">
         <v>169.9</v>
       </c>
@@ -23206,7 +23260,7 @@
         <v>1.552</v>
       </c>
     </row>
-    <row r="1006" spans="1:8">
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1006">
         <v>176.7</v>
       </c>
@@ -23232,7 +23286,7 @@
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="1007" spans="1:8">
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1007">
         <v>183.5</v>
       </c>
@@ -23258,7 +23312,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="1008" spans="1:8">
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1008">
         <v>190.3</v>
       </c>
@@ -23284,7 +23338,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="1009" spans="1:8">
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1009">
         <v>197.1</v>
       </c>
@@ -23310,7 +23364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:8">
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>30</v>
       </c>
@@ -23324,7 +23378,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="1015" spans="1:8">
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>26</v>
       </c>
@@ -23350,7 +23404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1016" spans="1:8">
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>40</v>
       </c>
@@ -23370,7 +23424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1017" spans="1:8">
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1017">
         <v>0</v>
       </c>
@@ -23396,7 +23450,7 @@
         <v>5.2140000000000004</v>
       </c>
     </row>
-    <row r="1018" spans="1:8">
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1018">
         <v>7.3</v>
       </c>
@@ -23422,7 +23476,7 @@
         <v>5.2290000000000001</v>
       </c>
     </row>
-    <row r="1019" spans="1:8">
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1019">
         <v>14.6</v>
       </c>
@@ -23448,7 +23502,7 @@
         <v>5.242</v>
       </c>
     </row>
-    <row r="1020" spans="1:8">
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1020">
         <v>21.9</v>
       </c>
@@ -23474,7 +23528,7 @@
         <v>5.2569999999999997</v>
       </c>
     </row>
-    <row r="1021" spans="1:8">
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1021">
         <v>29.2</v>
       </c>
@@ -23500,7 +23554,7 @@
         <v>5.2690000000000001</v>
       </c>
     </row>
-    <row r="1022" spans="1:8">
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1022">
         <v>36.5</v>
       </c>
@@ -23526,7 +23580,7 @@
         <v>5.2729999999999997</v>
       </c>
     </row>
-    <row r="1023" spans="1:8">
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1023">
         <v>43.8</v>
       </c>
@@ -23552,7 +23606,7 @@
         <v>5.282</v>
       </c>
     </row>
-    <row r="1024" spans="1:8">
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1024">
         <v>51.1</v>
       </c>
@@ -23578,7 +23632,7 @@
         <v>5.2939999999999996</v>
       </c>
     </row>
-    <row r="1025" spans="1:8">
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1025">
         <v>58.4</v>
       </c>
@@ -23604,7 +23658,7 @@
         <v>5.3049999999999997</v>
       </c>
     </row>
-    <row r="1026" spans="1:8">
+    <row r="1026" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1026">
         <v>65.599999999999994</v>
       </c>
@@ -23630,7 +23684,7 @@
         <v>5.3109999999999999</v>
       </c>
     </row>
-    <row r="1027" spans="1:8">
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1027">
         <v>72.900000000000006</v>
       </c>
@@ -23656,7 +23710,7 @@
         <v>5.319</v>
       </c>
     </row>
-    <row r="1028" spans="1:8">
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1028">
         <v>80.2</v>
       </c>
@@ -23682,7 +23736,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="1029" spans="1:8">
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1029">
         <v>87.5</v>
       </c>
@@ -23708,7 +23762,7 @@
         <v>5.3289999999999997</v>
       </c>
     </row>
-    <row r="1030" spans="1:8">
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1030">
         <v>94.8</v>
       </c>
@@ -23734,7 +23788,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="1031" spans="1:8">
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1031">
         <v>102.1</v>
       </c>
@@ -23760,7 +23814,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="1032" spans="1:8">
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1032">
         <v>109.4</v>
       </c>
@@ -23786,7 +23840,7 @@
         <v>5.306</v>
       </c>
     </row>
-    <row r="1033" spans="1:8">
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1033">
         <v>116.7</v>
       </c>
@@ -23812,7 +23866,7 @@
         <v>5.2539999999999996</v>
       </c>
     </row>
-    <row r="1034" spans="1:8">
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1034">
         <v>124</v>
       </c>
@@ -23838,7 +23892,7 @@
         <v>5.173</v>
       </c>
     </row>
-    <row r="1035" spans="1:8">
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1035">
         <v>131.30000000000001</v>
       </c>
@@ -23864,7 +23918,7 @@
         <v>4.9370000000000003</v>
       </c>
     </row>
-    <row r="1036" spans="1:8">
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1036">
         <v>138.6</v>
       </c>
@@ -23890,7 +23944,7 @@
         <v>4.6079999999999997</v>
       </c>
     </row>
-    <row r="1037" spans="1:8">
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1037">
         <v>145.9</v>
       </c>
@@ -23916,7 +23970,7 @@
         <v>4.2469999999999999</v>
       </c>
     </row>
-    <row r="1038" spans="1:8">
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1038">
         <v>153.19999999999999</v>
       </c>
@@ -23942,7 +23996,7 @@
         <v>3.835</v>
       </c>
     </row>
-    <row r="1039" spans="1:8">
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1039">
         <v>160.5</v>
       </c>
@@ -23968,7 +24022,7 @@
         <v>3.3490000000000002</v>
       </c>
     </row>
-    <row r="1040" spans="1:8">
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1040">
         <v>167.8</v>
       </c>
@@ -23994,7 +24048,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="1041" spans="1:8">
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1041">
         <v>175.1</v>
       </c>
@@ -24020,35 +24074,33 @@
         <v>2.4220000000000002</v>
       </c>
     </row>
-    <row r="1042" spans="1:8">
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1042">
         <v>182.3</v>
       </c>
-      <c r="B1042" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1042" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1042" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E1042" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F1042" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G1042" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:8">
+      <c r="B1042">
+        <v>1.02</v>
+      </c>
+      <c r="C1042">
+        <v>0</v>
+      </c>
+      <c r="D1042">
+        <v>0</v>
+      </c>
+      <c r="E1042">
+        <v>0</v>
+      </c>
+      <c r="F1042">
+        <v>0</v>
+      </c>
+      <c r="G1042">
+        <v>0</v>
+      </c>
+      <c r="H1042">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1043">
         <v>189.6</v>
       </c>
@@ -24074,7 +24126,7 @@
         <v>1.4890000000000001</v>
       </c>
     </row>
-    <row r="1044" spans="1:8">
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1044">
         <v>196.9</v>
       </c>
@@ -24100,35 +24152,33 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="1045" spans="1:8">
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1045">
         <v>204.2</v>
       </c>
-      <c r="B1045" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1045" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1045" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E1045" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F1045" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G1045" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:8">
+      <c r="B1045">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C1045">
+        <v>0</v>
+      </c>
+      <c r="D1045">
+        <v>0</v>
+      </c>
+      <c r="E1045">
+        <v>0</v>
+      </c>
+      <c r="F1045">
+        <v>0</v>
+      </c>
+      <c r="G1045">
+        <v>0</v>
+      </c>
+      <c r="H1045">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1046">
         <v>211.5</v>
       </c>
@@ -24161,24 +24211,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
